--- a/data/trans_orig/P14A97-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A97-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D9B3683-B622-4E40-8D29-2FC84D569B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{335CCE3D-D1B4-47D5-8AB3-38D0C53448B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C51A1A8A-192C-475C-86F7-1664070F416D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{58428B52-E39E-4ED9-8BAC-F13D54389FB1}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="309">
   <si>
     <t>Población que recibe medicación o terapia por otra enfermedad 1 en 2012 (Tasa respuesta: 4,98%)</t>
   </si>
@@ -84,7 +84,7 @@
     <t>85,18%</t>
   </si>
   <si>
-    <t>54,17%</t>
+    <t>55,67%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -93,13 +93,13 @@
     <t>93,98%</t>
   </si>
   <si>
-    <t>78,74%</t>
+    <t>80,45%</t>
   </si>
   <si>
     <t>91,48%</t>
   </si>
   <si>
-    <t>80,1%</t>
+    <t>81,2%</t>
   </si>
   <si>
     <t>97,85%</t>
@@ -111,13 +111,13 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>45,83%</t>
+    <t>44,33%</t>
   </si>
   <si>
     <t>6,02%</t>
   </si>
   <si>
-    <t>21,26%</t>
+    <t>19,55%</t>
   </si>
   <si>
     <t>8,52%</t>
@@ -126,7 +126,7 @@
     <t>2,15%</t>
   </si>
   <si>
-    <t>19,9%</t>
+    <t>18,8%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,43 +138,43 @@
     <t>94,75%</t>
   </si>
   <si>
-    <t>69,56%</t>
+    <t>69,34%</t>
   </si>
   <si>
     <t>90,66%</t>
   </si>
   <si>
-    <t>70,1%</t>
+    <t>71,17%</t>
   </si>
   <si>
     <t>92,59%</t>
   </si>
   <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
   </si>
   <si>
     <t>5,25%</t>
   </si>
   <si>
-    <t>30,44%</t>
+    <t>30,66%</t>
   </si>
   <si>
     <t>9,34%</t>
   </si>
   <si>
-    <t>29,9%</t>
+    <t>28,83%</t>
   </si>
   <si>
     <t>7,41%</t>
   </si>
   <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -183,55 +183,55 @@
     <t>83,52%</t>
   </si>
   <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
   </si>
   <si>
     <t>90,47%</t>
   </si>
   <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
   </si>
   <si>
     <t>87,7%</t>
   </si>
   <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
   </si>
   <si>
     <t>16,48%</t>
   </si>
   <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
   </si>
   <si>
     <t>9,53%</t>
   </si>
   <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
   </si>
   <si>
     <t>12,3%</t>
   </si>
   <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -240,49 +240,49 @@
     <t>40,43%</t>
   </si>
   <si>
-    <t>81,02%</t>
+    <t>81,32%</t>
   </si>
   <si>
     <t>71,63%</t>
   </si>
   <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
   </si>
   <si>
     <t>64,18%</t>
   </si>
   <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
   </si>
   <si>
     <t>59,57%</t>
   </si>
   <si>
-    <t>18,98%</t>
+    <t>18,68%</t>
   </si>
   <si>
     <t>28,37%</t>
   </si>
   <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
   </si>
   <si>
     <t>35,82%</t>
   </si>
   <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -291,43 +291,43 @@
     <t>82,56%</t>
   </si>
   <si>
-    <t>47,18%</t>
+    <t>54,69%</t>
   </si>
   <si>
     <t>91,98%</t>
   </si>
   <si>
-    <t>64,81%</t>
+    <t>64,71%</t>
   </si>
   <si>
     <t>88,96%</t>
   </si>
   <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
   </si>
   <si>
     <t>17,44%</t>
   </si>
   <si>
-    <t>52,82%</t>
+    <t>45,31%</t>
   </si>
   <si>
     <t>8,02%</t>
   </si>
   <si>
-    <t>35,19%</t>
+    <t>35,29%</t>
   </si>
   <si>
     <t>11,04%</t>
   </si>
   <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -336,55 +336,55 @@
     <t>70,04%</t>
   </si>
   <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
   </si>
   <si>
     <t>83,5%</t>
   </si>
   <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
   </si>
   <si>
     <t>78,68%</t>
   </si>
   <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
   </si>
   <si>
     <t>29,96%</t>
   </si>
   <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
   </si>
   <si>
     <t>16,5%</t>
   </si>
   <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
   </si>
   <si>
     <t>21,32%</t>
   </si>
   <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -393,103 +393,103 @@
     <t>89,71%</t>
   </si>
   <si>
-    <t>56,06%</t>
+    <t>47,84%</t>
   </si>
   <si>
     <t>82,98%</t>
   </si>
   <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
   </si>
   <si>
     <t>84,3%</t>
   </si>
   <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
   </si>
   <si>
     <t>10,29%</t>
   </si>
   <si>
-    <t>43,94%</t>
+    <t>52,16%</t>
   </si>
   <si>
     <t>17,02%</t>
   </si>
   <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
   </si>
   <si>
     <t>15,7%</t>
   </si>
   <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
   </si>
   <si>
     <t>80,62%</t>
   </si>
   <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
   </si>
   <si>
     <t>86,91%</t>
   </si>
   <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
   </si>
   <si>
     <t>84,78%</t>
   </si>
   <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
   </si>
   <si>
     <t>19,38%</t>
   </si>
   <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
   </si>
   <si>
     <t>13,09%</t>
   </si>
   <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
   </si>
   <si>
     <t>15,22%</t>
   </si>
   <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -501,109 +501,109 @@
     <t>49,28%</t>
   </si>
   <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
   </si>
   <si>
     <t>85,55%</t>
   </si>
   <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
   </si>
   <si>
     <t>72,98%</t>
   </si>
   <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
   </si>
   <si>
     <t>50,72%</t>
   </si>
   <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
   </si>
   <si>
     <t>14,45%</t>
   </si>
   <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
   </si>
   <si>
     <t>27,02%</t>
   </si>
   <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
   </si>
   <si>
     <t>76,28%</t>
   </si>
   <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
   </si>
   <si>
     <t>90,62%</t>
   </si>
   <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
   </si>
   <si>
     <t>85,78%</t>
   </si>
   <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
   </si>
   <si>
     <t>23,72%</t>
   </si>
   <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
   </si>
   <si>
     <t>9,38%</t>
   </si>
   <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
   </si>
   <si>
     <t>14,22%</t>
   </si>
   <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
   </si>
   <si>
     <t>66,66%</t>
@@ -612,19 +612,19 @@
     <t>88,86%</t>
   </si>
   <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
   </si>
   <si>
     <t>86,52%</t>
   </si>
   <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
   </si>
   <si>
     <t>33,34%</t>
@@ -633,73 +633,85 @@
     <t>11,14%</t>
   </si>
   <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
   </si>
   <si>
     <t>13,48%</t>
   </si>
   <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
   </si>
   <si>
     <t>73,9%</t>
   </si>
   <si>
-    <t>51,5%</t>
+    <t>53,99%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
   </si>
   <si>
     <t>91,24%</t>
   </si>
   <si>
-    <t>97,08%</t>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
   </si>
   <si>
     <t>85,5%</t>
   </si>
   <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
   </si>
   <si>
     <t>26,1%</t>
   </si>
   <si>
-    <t>48,5%</t>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
   </si>
   <si>
     <t>8,76%</t>
   </si>
   <si>
-    <t>2,92%</t>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
   </si>
   <si>
     <t>14,5%</t>
   </si>
   <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
   </si>
   <si>
     <t>70,92%</t>
   </si>
   <si>
-    <t>27,8%</t>
+    <t>27,7%</t>
   </si>
   <si>
     <t>86,51%</t>
   </si>
   <si>
-    <t>66,82%</t>
+    <t>61,79%</t>
   </si>
   <si>
     <t>95,93%</t>
@@ -708,16 +720,16 @@
     <t>82,63%</t>
   </si>
   <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
   </si>
   <si>
     <t>29,08%</t>
   </si>
   <si>
-    <t>72,2%</t>
+    <t>72,3%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -726,232 +738,232 @@
     <t>4,07%</t>
   </si>
   <si>
-    <t>33,18%</t>
+    <t>38,21%</t>
   </si>
   <si>
     <t>17,37%</t>
   </si>
   <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
   </si>
   <si>
     <t>82,93%</t>
   </si>
   <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
   </si>
   <si>
     <t>80,32%</t>
   </si>
   <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
   </si>
   <si>
     <t>81,46%</t>
   </si>
   <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
   </si>
   <si>
     <t>17,07%</t>
   </si>
   <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
   </si>
   <si>
     <t>19,68%</t>
   </si>
   <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
   </si>
   <si>
     <t>18,54%</t>
   </si>
   <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
   </si>
   <si>
     <t>74,87%</t>
   </si>
   <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
   </si>
   <si>
     <t>68,56%</t>
   </si>
   <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
   </si>
   <si>
     <t>69,85%</t>
   </si>
   <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
   </si>
   <si>
     <t>25,13%</t>
   </si>
   <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
   </si>
   <si>
     <t>31,44%</t>
   </si>
   <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
   </si>
   <si>
     <t>30,15%</t>
   </si>
   <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
   </si>
   <si>
     <t>61,12%</t>
   </si>
   <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
   </si>
   <si>
     <t>84,74%</t>
   </si>
   <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
   </si>
   <si>
     <t>77,57%</t>
   </si>
   <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
   </si>
   <si>
     <t>38,88%</t>
   </si>
   <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
   </si>
   <si>
     <t>15,26%</t>
   </si>
   <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
   </si>
   <si>
     <t>22,43%</t>
   </si>
   <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
   </si>
   <si>
     <t>70,0%</t>
   </si>
   <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
   </si>
   <si>
     <t>83,9%</t>
   </si>
   <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
   </si>
   <si>
     <t>79,7%</t>
   </si>
   <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
   </si>
   <si>
     <t>30,0%</t>
   </si>
   <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
   </si>
   <si>
     <t>16,1%</t>
   </si>
   <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
   </si>
   <si>
     <t>20,3%</t>
   </si>
   <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
   </si>
 </sst>
 </file>
@@ -1363,7 +1375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF1E6A9-F7E9-4C26-848C-4B78782B5BF3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FAF452F-076E-48FE-A657-EEA9C5DCE0B0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2876,7 +2888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB80DC2-6D35-4273-AA87-010AC4DC6F7C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3666A1B1-C0CF-463B-A9DC-72F39A7E31E0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3471,7 +3483,7 @@
         <v>204</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>87</v>
+        <v>205</v>
       </c>
       <c r="H13" s="7">
         <v>44</v>
@@ -3480,13 +3492,13 @@
         <v>47481</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>104</v>
+        <v>207</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M13" s="7">
         <v>62</v>
@@ -3495,13 +3507,13 @@
         <v>66479</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3516,13 +3528,13 @@
         <v>6710</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>94</v>
+        <v>213</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -3531,13 +3543,13 @@
         <v>4561</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>113</v>
+        <v>217</v>
       </c>
       <c r="M14" s="7">
         <v>10</v>
@@ -3546,13 +3558,13 @@
         <v>11271</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3620,10 +3632,10 @@
         <v>4643</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>16</v>
@@ -3635,13 +3647,13 @@
         <v>17128</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -3650,13 +3662,13 @@
         <v>21771</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3671,13 +3683,13 @@
         <v>1903</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -3686,13 +3698,13 @@
         <v>2672</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -3701,13 +3713,13 @@
         <v>4575</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,13 +3787,13 @@
         <v>19789</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="H19" s="7">
         <v>21</v>
@@ -3790,13 +3802,13 @@
         <v>24653</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="M19" s="7">
         <v>41</v>
@@ -3805,13 +3817,13 @@
         <v>44442</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3826,13 +3838,13 @@
         <v>4075</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -3841,13 +3853,13 @@
         <v>6039</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="M20" s="7">
         <v>9</v>
@@ -3856,13 +3868,13 @@
         <v>10114</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,13 +3942,13 @@
         <v>9642</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="H22" s="7">
         <v>31</v>
@@ -3945,13 +3957,13 @@
         <v>34678</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="M22" s="7">
         <v>40</v>
@@ -3960,13 +3972,13 @@
         <v>44320</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3981,13 +3993,13 @@
         <v>3235</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="H23" s="7">
         <v>14</v>
@@ -3996,13 +4008,13 @@
         <v>15899</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="M23" s="7">
         <v>17</v>
@@ -4011,13 +4023,13 @@
         <v>19134</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,13 +4097,13 @@
         <v>18766</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="H25" s="7">
         <v>52</v>
@@ -4100,13 +4112,13 @@
         <v>59690</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M25" s="7">
         <v>70</v>
@@ -4115,13 +4127,13 @@
         <v>78456</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4136,13 +4148,13 @@
         <v>11935</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="H26" s="7">
         <v>9</v>
@@ -4151,13 +4163,13 @@
         <v>10752</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="M26" s="7">
         <v>20</v>
@@ -4166,13 +4178,13 @@
         <v>22687</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,13 +4252,13 @@
         <v>94011</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H28" s="7">
         <v>236</v>
@@ -4255,13 +4267,13 @@
         <v>259681</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="M28" s="7">
         <v>328</v>
@@ -4270,13 +4282,13 @@
         <v>353692</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4291,13 +4303,13 @@
         <v>40288</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="H29" s="7">
         <v>45</v>
@@ -4306,13 +4318,13 @@
         <v>49819</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="M29" s="7">
         <v>84</v>
@@ -4321,13 +4333,13 @@
         <v>90107</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14A97-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A97-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{335CCE3D-D1B4-47D5-8AB3-38D0C53448B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EA7259D-5357-4112-AC80-D776B4917AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{58428B52-E39E-4ED9-8BAC-F13D54389FB1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{48B3BC1D-97DC-4EE2-AF9D-529299CC196D}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="303">
   <si>
     <t>Población que recibe medicación o terapia por otra enfermedad 1 en 2012 (Tasa respuesta: 4,98%)</t>
   </si>
@@ -84,7 +84,7 @@
     <t>85,18%</t>
   </si>
   <si>
-    <t>55,67%</t>
+    <t>55,17%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -93,16 +93,16 @@
     <t>93,98%</t>
   </si>
   <si>
-    <t>80,45%</t>
+    <t>80,7%</t>
   </si>
   <si>
     <t>91,48%</t>
   </si>
   <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
   </si>
   <si>
     <t>14,82%</t>
@@ -111,22 +111,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>44,33%</t>
+    <t>44,83%</t>
   </si>
   <si>
     <t>6,02%</t>
   </si>
   <si>
-    <t>19,55%</t>
+    <t>19,3%</t>
   </si>
   <si>
     <t>8,52%</t>
   </si>
   <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,43 +138,43 @@
     <t>94,75%</t>
   </si>
   <si>
-    <t>69,34%</t>
+    <t>70,03%</t>
   </si>
   <si>
     <t>90,66%</t>
   </si>
   <si>
-    <t>71,17%</t>
+    <t>69,87%</t>
   </si>
   <si>
     <t>92,59%</t>
   </si>
   <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
   </si>
   <si>
     <t>5,25%</t>
   </si>
   <si>
-    <t>30,66%</t>
+    <t>29,97%</t>
   </si>
   <si>
     <t>9,34%</t>
   </si>
   <si>
-    <t>28,83%</t>
+    <t>30,13%</t>
   </si>
   <si>
     <t>7,41%</t>
   </si>
   <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -183,55 +183,55 @@
     <t>83,52%</t>
   </si>
   <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
   </si>
   <si>
     <t>90,47%</t>
   </si>
   <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
   </si>
   <si>
     <t>87,7%</t>
   </si>
   <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
   </si>
   <si>
     <t>16,48%</t>
   </si>
   <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
   </si>
   <si>
     <t>9,53%</t>
   </si>
   <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
   </si>
   <si>
     <t>12,3%</t>
   </si>
   <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -240,49 +240,43 @@
     <t>40,43%</t>
   </si>
   <si>
-    <t>81,32%</t>
-  </si>
-  <si>
     <t>71,63%</t>
   </si>
   <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
   </si>
   <si>
     <t>64,18%</t>
   </si>
   <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
   </si>
   <si>
     <t>59,57%</t>
   </si>
   <si>
-    <t>18,68%</t>
-  </si>
-  <si>
     <t>28,37%</t>
   </si>
   <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
   </si>
   <si>
     <t>35,82%</t>
   </si>
   <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -291,43 +285,43 @@
     <t>82,56%</t>
   </si>
   <si>
-    <t>54,69%</t>
+    <t>53,93%</t>
   </si>
   <si>
     <t>91,98%</t>
   </si>
   <si>
-    <t>64,71%</t>
+    <t>64,57%</t>
   </si>
   <si>
     <t>88,96%</t>
   </si>
   <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
   </si>
   <si>
     <t>17,44%</t>
   </si>
   <si>
-    <t>45,31%</t>
+    <t>46,07%</t>
   </si>
   <si>
     <t>8,02%</t>
   </si>
   <si>
-    <t>35,29%</t>
+    <t>35,43%</t>
   </si>
   <si>
     <t>11,04%</t>
   </si>
   <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -336,55 +330,55 @@
     <t>70,04%</t>
   </si>
   <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
   </si>
   <si>
     <t>83,5%</t>
   </si>
   <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
   </si>
   <si>
     <t>78,68%</t>
   </si>
   <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
   </si>
   <si>
     <t>29,96%</t>
   </si>
   <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
   </si>
   <si>
     <t>16,5%</t>
   </si>
   <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
   </si>
   <si>
     <t>21,32%</t>
   </si>
   <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -393,217 +387,217 @@
     <t>89,71%</t>
   </si>
   <si>
-    <t>47,84%</t>
+    <t>56,84%</t>
   </si>
   <si>
     <t>82,98%</t>
   </si>
   <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
+    <t>68,17%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
   </si>
   <si>
     <t>84,3%</t>
   </si>
   <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
+    <t>70,05%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
   </si>
   <si>
     <t>10,29%</t>
   </si>
   <si>
-    <t>52,16%</t>
+    <t>43,16%</t>
   </si>
   <si>
     <t>17,02%</t>
   </si>
   <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
   </si>
   <si>
     <t>15,7%</t>
   </si>
   <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
   </si>
   <si>
     <t>80,62%</t>
   </si>
   <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
   </si>
   <si>
     <t>86,91%</t>
   </si>
   <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
   </si>
   <si>
     <t>84,78%</t>
   </si>
   <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
   </si>
   <si>
     <t>19,38%</t>
   </si>
   <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
   </si>
   <si>
     <t>13,09%</t>
   </si>
   <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
   </si>
   <si>
     <t>15,22%</t>
   </si>
   <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por otra enfermedad 1 en 2015 (Tasa respuesta: 6,27%)</t>
+    <t>Población que recibe medicación o terapia por otra enfermedad 1 en 2016 (Tasa respuesta: 6,27%)</t>
   </si>
   <si>
     <t>49,28%</t>
   </si>
   <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
   </si>
   <si>
     <t>85,55%</t>
   </si>
   <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
   </si>
   <si>
     <t>72,98%</t>
   </si>
   <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
   </si>
   <si>
     <t>50,72%</t>
   </si>
   <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
   </si>
   <si>
     <t>14,45%</t>
   </si>
   <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
   </si>
   <si>
     <t>27,02%</t>
   </si>
   <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
   </si>
   <si>
     <t>76,28%</t>
   </si>
   <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
   </si>
   <si>
     <t>90,62%</t>
   </si>
   <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
   </si>
   <si>
     <t>85,78%</t>
   </si>
   <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
   </si>
   <si>
     <t>23,72%</t>
   </si>
   <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
   </si>
   <si>
     <t>9,38%</t>
   </si>
   <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
   </si>
   <si>
     <t>14,22%</t>
   </si>
   <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
   </si>
   <si>
     <t>66,66%</t>
@@ -612,18 +606,18 @@
     <t>88,86%</t>
   </si>
   <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
     <t>68,8%</t>
   </si>
   <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
     <t>96,66%</t>
   </si>
   <si>
@@ -633,94 +627,91 @@
     <t>11,14%</t>
   </si>
   <si>
-    <t>3,35%</t>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
   </si>
   <si>
     <t>31,2%</t>
   </si>
   <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
     <t>73,9%</t>
   </si>
   <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
   </si>
   <si>
     <t>91,24%</t>
   </si>
   <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
   </si>
   <si>
     <t>85,5%</t>
   </si>
   <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
   </si>
   <si>
     <t>26,1%</t>
   </si>
   <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
   </si>
   <si>
     <t>8,76%</t>
   </si>
   <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
   </si>
   <si>
     <t>14,5%</t>
   </si>
   <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
   </si>
   <si>
     <t>70,92%</t>
   </si>
   <si>
-    <t>27,7%</t>
+    <t>28,47%</t>
   </si>
   <si>
     <t>86,51%</t>
   </si>
   <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
+    <t>66,49%</t>
   </si>
   <si>
     <t>82,63%</t>
   </si>
   <si>
-    <t>61,88%</t>
+    <t>63,89%</t>
   </si>
   <si>
     <t>93,3%</t>
@@ -729,16 +720,13 @@
     <t>29,08%</t>
   </si>
   <si>
-    <t>72,3%</t>
+    <t>71,53%</t>
   </si>
   <si>
     <t>13,49%</t>
   </si>
   <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
+    <t>33,51%</t>
   </si>
   <si>
     <t>17,37%</t>
@@ -747,223 +735,217 @@
     <t>6,7%</t>
   </si>
   <si>
-    <t>38,12%</t>
+    <t>36,11%</t>
   </si>
   <si>
     <t>82,93%</t>
   </si>
   <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
   </si>
   <si>
     <t>80,32%</t>
   </si>
   <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
   </si>
   <si>
     <t>81,46%</t>
   </si>
   <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
   </si>
   <si>
     <t>17,07%</t>
   </si>
   <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
   </si>
   <si>
     <t>19,68%</t>
   </si>
   <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
   </si>
   <si>
     <t>18,54%</t>
   </si>
   <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
   </si>
   <si>
     <t>74,87%</t>
   </si>
   <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
   </si>
   <si>
     <t>68,56%</t>
   </si>
   <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
+    <t>52,17%</t>
   </si>
   <si>
     <t>69,85%</t>
   </si>
   <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
   </si>
   <si>
     <t>25,13%</t>
   </si>
   <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
   </si>
   <si>
     <t>31,44%</t>
   </si>
   <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
+    <t>47,83%</t>
   </si>
   <si>
     <t>30,15%</t>
   </si>
   <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
   </si>
   <si>
     <t>61,12%</t>
   </si>
   <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
   </si>
   <si>
     <t>84,74%</t>
   </si>
   <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
   </si>
   <si>
     <t>77,57%</t>
   </si>
   <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
   </si>
   <si>
     <t>38,88%</t>
   </si>
   <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
   </si>
   <si>
     <t>15,26%</t>
   </si>
   <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
   </si>
   <si>
     <t>22,43%</t>
   </si>
   <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
   </si>
   <si>
     <t>70,0%</t>
   </si>
   <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
   </si>
   <si>
     <t>83,9%</t>
   </si>
   <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
   </si>
   <si>
     <t>79,7%</t>
   </si>
   <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
   </si>
   <si>
     <t>30,0%</t>
   </si>
   <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
   </si>
   <si>
     <t>16,1%</t>
   </si>
   <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
   </si>
   <si>
     <t>20,3%</t>
   </si>
   <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
   </si>
 </sst>
 </file>
@@ -1375,7 +1357,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FAF452F-076E-48FE-A657-EEA9C5DCE0B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACDB134F-CBBE-4CAC-B7D6-69C297B6430A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2107,7 +2089,7 @@
         <v>23</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -2116,13 +2098,13 @@
         <v>12235</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -2131,13 +2113,13 @@
         <v>14401</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2152,10 +2134,10 @@
         <v>3191</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>16</v>
@@ -2167,13 +2149,13 @@
         <v>4846</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -2182,13 +2164,13 @@
         <v>8037</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2244,7 +2226,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2256,10 +2238,10 @@
         <v>9141</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>16</v>
@@ -2271,10 +2253,10 @@
         <v>21553</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>16</v>
@@ -2286,13 +2268,13 @@
         <v>30694</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2307,13 +2289,13 @@
         <v>1931</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -2322,13 +2304,13 @@
         <v>1880</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -2337,13 +2319,13 @@
         <v>3811</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2399,7 +2381,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2411,13 +2393,13 @@
         <v>20569</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H22" s="7">
         <v>40</v>
@@ -2426,13 +2408,13 @@
         <v>43963</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M22" s="7">
         <v>60</v>
@@ -2441,13 +2423,13 @@
         <v>64533</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2462,13 +2444,13 @@
         <v>8799</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H23" s="7">
         <v>8</v>
@@ -2477,13 +2459,13 @@
         <v>8689</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M23" s="7">
         <v>17</v>
@@ -2492,13 +2474,13 @@
         <v>17487</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2554,7 +2536,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2566,10 +2548,10 @@
         <v>8317</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>16</v>
@@ -2581,13 +2563,13 @@
         <v>31318</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M25" s="7">
         <v>36</v>
@@ -2596,13 +2578,13 @@
         <v>39635</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2617,13 +2599,13 @@
         <v>954</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
@@ -2632,13 +2614,13 @@
         <v>6425</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
@@ -2647,13 +2629,13 @@
         <v>7379</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2721,13 +2703,13 @@
         <v>93957</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H28" s="7">
         <v>184</v>
@@ -2736,13 +2718,13 @@
         <v>199034</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M28" s="7">
         <v>274</v>
@@ -2751,13 +2733,13 @@
         <v>292991</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2772,13 +2754,13 @@
         <v>22593</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H29" s="7">
         <v>27</v>
@@ -2787,13 +2769,13 @@
         <v>29990</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M29" s="7">
         <v>50</v>
@@ -2802,13 +2784,13 @@
         <v>52584</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2864,7 +2846,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -2888,7 +2870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3666A1B1-C0CF-463B-A9DC-72F39A7E31E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEA0B435-03CD-4669-A9D5-04B1310656C8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2905,7 +2887,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3012,13 +2994,13 @@
         <v>7188</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H4" s="7">
         <v>24</v>
@@ -3027,13 +3009,13 @@
         <v>23525</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M4" s="7">
         <v>31</v>
@@ -3042,13 +3024,13 @@
         <v>30714</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3063,13 +3045,13 @@
         <v>7399</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -3078,13 +3060,13 @@
         <v>3974</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
@@ -3093,13 +3075,13 @@
         <v>11373</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3167,13 +3149,13 @@
         <v>13024</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H7" s="7">
         <v>27</v>
@@ -3182,13 +3164,13 @@
         <v>30325</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M7" s="7">
         <v>40</v>
@@ -3197,13 +3179,13 @@
         <v>43350</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3218,13 +3200,13 @@
         <v>4050</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -3233,13 +3215,13 @@
         <v>3140</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M8" s="7">
         <v>8</v>
@@ -3248,13 +3230,13 @@
         <v>7189</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3322,7 +3304,7 @@
         <v>1960</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>23</v>
@@ -3337,13 +3319,13 @@
         <v>22198</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -3352,13 +3334,13 @@
         <v>24159</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3373,7 +3355,7 @@
         <v>981</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>23</v>
@@ -3388,13 +3370,13 @@
         <v>2783</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -3403,13 +3385,13 @@
         <v>3764</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3477,13 +3459,13 @@
         <v>18998</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H13" s="7">
         <v>44</v>
@@ -3492,13 +3474,13 @@
         <v>47481</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M13" s="7">
         <v>62</v>
@@ -3507,13 +3489,13 @@
         <v>66479</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3528,13 +3510,13 @@
         <v>6710</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -3543,13 +3525,13 @@
         <v>4561</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M14" s="7">
         <v>10</v>
@@ -3558,13 +3540,13 @@
         <v>11271</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3632,10 +3614,10 @@
         <v>4643</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>16</v>
@@ -3647,13 +3629,13 @@
         <v>17128</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>225</v>
+        <v>16</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -3662,13 +3644,13 @@
         <v>21771</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3683,13 +3665,13 @@
         <v>1903</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -3698,13 +3680,13 @@
         <v>2672</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>232</v>
+        <v>23</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -3713,13 +3695,13 @@
         <v>4575</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,7 +3757,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3787,13 +3769,13 @@
         <v>19789</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H19" s="7">
         <v>21</v>
@@ -3802,13 +3784,13 @@
         <v>24653</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="M19" s="7">
         <v>41</v>
@@ -3817,13 +3799,13 @@
         <v>44442</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3838,13 +3820,13 @@
         <v>4075</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -3853,13 +3835,13 @@
         <v>6039</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M20" s="7">
         <v>9</v>
@@ -3868,13 +3850,13 @@
         <v>10114</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,7 +3912,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3942,13 +3924,13 @@
         <v>9642</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H22" s="7">
         <v>31</v>
@@ -3957,13 +3939,13 @@
         <v>34678</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="M22" s="7">
         <v>40</v>
@@ -3972,13 +3954,13 @@
         <v>44320</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3993,13 +3975,13 @@
         <v>3235</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="H23" s="7">
         <v>14</v>
@@ -4008,13 +3990,13 @@
         <v>15899</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="M23" s="7">
         <v>17</v>
@@ -4023,13 +4005,13 @@
         <v>19134</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,7 +4067,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4097,13 +4079,13 @@
         <v>18766</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="H25" s="7">
         <v>52</v>
@@ -4112,13 +4094,13 @@
         <v>59690</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="M25" s="7">
         <v>70</v>
@@ -4127,13 +4109,13 @@
         <v>78456</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4148,13 +4130,13 @@
         <v>11935</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="H26" s="7">
         <v>9</v>
@@ -4163,13 +4145,13 @@
         <v>10752</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="M26" s="7">
         <v>20</v>
@@ -4178,13 +4160,13 @@
         <v>22687</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,13 +4234,13 @@
         <v>94011</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="H28" s="7">
         <v>236</v>
@@ -4267,13 +4249,13 @@
         <v>259681</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="M28" s="7">
         <v>328</v>
@@ -4282,13 +4264,13 @@
         <v>353692</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4300,16 +4282,16 @@
         <v>39</v>
       </c>
       <c r="D29" s="7">
-        <v>40288</v>
+        <v>40289</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="H29" s="7">
         <v>45</v>
@@ -4318,13 +4300,13 @@
         <v>49819</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="M29" s="7">
         <v>84</v>
@@ -4333,13 +4315,13 @@
         <v>90107</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4351,7 +4333,7 @@
         <v>131</v>
       </c>
       <c r="D30" s="7">
-        <v>134299</v>
+        <v>134300</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -4395,7 +4377,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
